--- a/biology/Botanique/Hymenophyllum_caespitosum/Hymenophyllum_caespitosum.xlsx
+++ b/biology/Botanique/Hymenophyllum_caespitosum/Hymenophyllum_caespitosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum caespitosum est une espèce de fougères de la famille des Hyménophyllacées.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 un rhizome assez long, rampant et robuste ;
 les sores peuvent avoir deux dispositions : en position terminale du limbe, mais plus fréquemment à l'extrémité d'un segment latéral ;
 les frondes sont étroites, d'une trentaine de centimètres lorsque les sores sont terminaux, du double lorsqu'ils sont latéraux
 le limbe est divisé une fois ;
-l'indusie, que dépasse légèrement une columelle portant les sporanges, a deux lèvres[1].</t>
+l'indusie, que dépasse légèrement une columelle portant les sporanges, a deux lèvres.</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, tant épiphyte que terrestre, est présente en Amérique du Sud : Argentine et Chili, ainsi qu'aux Malouines.
 </t>
@@ -577,12 +593,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1825,  Charles Gaudichaud-Beaupré décrit une espèce collectée aux Malouines (îles Maclovian à proximité de Port-Stanley) sous le nom de Hymenophyllum caespitosum (document en référence).
-En 1846 (parution en 1856), William Jackson Hooker la déplace dans le genre Trichomanes : Trichomanes caespitosum (Gaud.) Hook.[2]. Il définit une variété : Trichomanes caespitosum var. elongatum Hook.
-En 1849, Karel Bořivoj Presl la transfère dans le genre Leptocionium : Leptocionium caespitosum (Gaud.) C.Presl[3].
-En 1910, Carl Frederik Albert Christensen la déplace dans le genre Serpyllopsis créé par Roelof Benjamin van den Bosch : Serpyllopsis caespitosa (Gaudich.) C.Chr.[4]. Il y adjoint les variétés suivantes :
+En 1846 (parution en 1856), William Jackson Hooker la déplace dans le genre Trichomanes : Trichomanes caespitosum (Gaud.) Hook.. Il définit une variété : Trichomanes caespitosum var. elongatum Hook.
+En 1849, Karel Bořivoj Presl la transfère dans le genre Leptocionium : Leptocionium caespitosum (Gaud.) C.Presl.
+En 1910, Carl Frederik Albert Christensen la déplace dans le genre Serpyllopsis créé par Roelof Benjamin van den Bosch : Serpyllopsis caespitosa (Gaudich.) C.Chr.. Il y adjoint les variétés suivantes :
 Serpyllopsis caespitosa var. typica C.Chr
 Serpyllopsis caespitosa var. densifolia (Phil.) C.Chr. - synonyme : Hymenophyllum densifolium Phil.
 Serpyllopsis caespitosa var. dusenii (Christ) C.Chr. - synonyme : Hymenophyllum dusenii Christ
@@ -590,8 +608,8 @@
 puis en 1920 :
 Serpyllopsis caespitosa var fernandeziana C.Chr et Skottsb.
 De toutes ces variétés, aucune n'a été reprise.
-En 1974, Conrad Vernon Morton maintient le classement de Carl Frederik Albert Christensen en précisant que cette espèce (unique du genre Serpyllopsis) semble presque se rapprocher particulièrement des bryophytes[5].
-En 2006, Atsushi Ebihara et al. confirment le placement d'origine dans le genre Hymenophyllum et précisent comme sous-genre Hymenophyllum dont ils font une espèce représentative[6].
+En 1974, Conrad Vernon Morton maintient le classement de Carl Frederik Albert Christensen en précisant que cette espèce (unique du genre Serpyllopsis) semble presque se rapprocher particulièrement des bryophytes.
+En 2006, Atsushi Ebihara et al. confirment le placement d'origine dans le genre Hymenophyllum et précisent comme sous-genre Hymenophyllum dont ils font une espèce représentative.
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Position taxonomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum caespitosum est une espèce du sous-genre Hymenophyllum.
 Cette espèce a deux homonymes :
